--- a/NextShop Тест-кейс Шепеленко А.А..xlsx
+++ b/NextShop Тест-кейс Шепеленко А.А..xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAF858C-6375-439F-BB22-A8770BAE89F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A0FA9E-0E5C-4C30-B3A7-BF7A2FD38B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -482,12 +482,21 @@
   <si>
     <t>Ответ на отзыв опубликован</t>
   </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>пройден</t>
+  </si>
+  <si>
+    <t>не пройден</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,6 +517,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -558,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -635,6 +660,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,7 +953,7 @@
   <dimension ref="A1:P258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C23"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +966,8 @@
     <col min="6" max="6" width="35.7109375" style="14" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="8" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="8" customWidth="1"/>
-    <col min="9" max="16" width="9.140625" style="11"/>
+    <col min="9" max="9" width="12" style="8" customWidth="1"/>
+    <col min="10" max="16" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -960,7 +995,9 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="22" t="s">
+        <v>112</v>
+      </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -988,7 +1025,9 @@
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="7"/>
+      <c r="I2" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -1014,7 +1053,9 @@
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="7"/>
+      <c r="I3" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -1042,7 +1083,9 @@
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
-      <c r="I4" s="7"/>
+      <c r="I4" s="30" t="s">
+        <v>114</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -1068,7 +1111,9 @@
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="7"/>
+      <c r="I5" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -1096,7 +1141,9 @@
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="7"/>
+      <c r="I6" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -1122,7 +1169,9 @@
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="7"/>
+      <c r="I7" s="30" t="s">
+        <v>114</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -1148,7 +1197,9 @@
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="7"/>
+      <c r="I8" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -1174,7 +1225,9 @@
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="7"/>
+      <c r="I9" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -1200,7 +1253,9 @@
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -1226,7 +1281,9 @@
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1254,7 +1311,9 @@
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="7"/>
+      <c r="I12" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1280,7 +1339,9 @@
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="7"/>
+      <c r="I13" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -1308,7 +1369,9 @@
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1334,7 +1397,9 @@
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="7"/>
+      <c r="I15" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -1360,7 +1425,9 @@
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -1388,7 +1455,9 @@
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="7"/>
+      <c r="I17" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -1416,7 +1485,9 @@
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="7"/>
+      <c r="I18" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -1442,7 +1513,9 @@
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="7"/>
+      <c r="I19" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1468,7 +1541,9 @@
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="7"/>
+      <c r="I20" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -1498,7 +1573,9 @@
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="7"/>
+      <c r="I21" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -1526,7 +1603,7 @@
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="6"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -1552,7 +1629,7 @@
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -1578,7 +1655,7 @@
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -1608,7 +1685,7 @@
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="7"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -1634,7 +1711,7 @@
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
-      <c r="I26" s="7"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -1660,7 +1737,7 @@
       </c>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
-      <c r="I27" s="7"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -1688,7 +1765,7 @@
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="7"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -1714,7 +1791,7 @@
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="7"/>
+      <c r="I29" s="6"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -1740,7 +1817,7 @@
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
-      <c r="I30" s="7"/>
+      <c r="I30" s="6"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -1770,7 +1847,7 @@
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="21"/>
-      <c r="I31" s="7"/>
+      <c r="I31" s="6"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -1788,7 +1865,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="18"/>
       <c r="H32" s="17"/>
-      <c r="I32" s="7"/>
+      <c r="I32" s="29"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -1806,7 +1883,7 @@
       <c r="F33" s="23"/>
       <c r="G33" s="18"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="7"/>
+      <c r="I33" s="29"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -1823,7 +1900,7 @@
       <c r="F34" s="23"/>
       <c r="G34" s="18"/>
       <c r="H34" s="17"/>
-      <c r="I34" s="7"/>
+      <c r="I34" s="29"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -1841,7 +1918,7 @@
       <c r="F35" s="24"/>
       <c r="G35" s="18"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="7"/>
+      <c r="I35" s="29"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -1859,7 +1936,7 @@
       <c r="F36" s="22"/>
       <c r="G36" s="18"/>
       <c r="H36" s="17"/>
-      <c r="I36" s="7"/>
+      <c r="I36" s="29"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -1877,7 +1954,7 @@
       <c r="F37" s="22"/>
       <c r="G37" s="18"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="7"/>
+      <c r="I37" s="29"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -1895,7 +1972,7 @@
       <c r="F38" s="22"/>
       <c r="G38" s="18"/>
       <c r="H38" s="17"/>
-      <c r="I38" s="7"/>
+      <c r="I38" s="29"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -1913,7 +1990,7 @@
       <c r="F39" s="24"/>
       <c r="G39" s="18"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="7"/>
+      <c r="I39" s="29"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -1931,7 +2008,7 @@
       <c r="F40" s="24"/>
       <c r="G40" s="18"/>
       <c r="H40" s="17"/>
-      <c r="I40" s="7"/>
+      <c r="I40" s="29"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -1949,7 +2026,7 @@
       <c r="F41" s="24"/>
       <c r="G41" s="18"/>
       <c r="H41" s="17"/>
-      <c r="I41" s="7"/>
+      <c r="I41" s="29"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -1967,7 +2044,7 @@
       <c r="F42" s="24"/>
       <c r="G42" s="18"/>
       <c r="H42" s="17"/>
-      <c r="I42" s="7"/>
+      <c r="I42" s="29"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -1985,7 +2062,7 @@
       <c r="F43" s="24"/>
       <c r="G43" s="18"/>
       <c r="H43" s="17"/>
-      <c r="I43" s="7"/>
+      <c r="I43" s="29"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -2003,7 +2080,7 @@
       <c r="F44" s="24"/>
       <c r="G44" s="18"/>
       <c r="H44" s="17"/>
-      <c r="I44" s="7"/>
+      <c r="I44" s="29"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -2021,7 +2098,7 @@
       <c r="F45" s="24"/>
       <c r="G45" s="19"/>
       <c r="H45" s="17"/>
-      <c r="I45" s="7"/>
+      <c r="I45" s="29"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -2039,7 +2116,7 @@
       <c r="F46" s="23"/>
       <c r="G46" s="15"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="7"/>
+      <c r="I46" s="29"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
@@ -2057,7 +2134,7 @@
       <c r="F47" s="23"/>
       <c r="G47" s="15"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="7"/>
+      <c r="I47" s="29"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -2075,7 +2152,7 @@
       <c r="F48" s="23"/>
       <c r="G48" s="15"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="7"/>
+      <c r="I48" s="29"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>

--- a/NextShop Тест-кейс Шепеленко А.А..xlsx
+++ b/NextShop Тест-кейс Шепеленко А.А..xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A0FA9E-0E5C-4C30-B3A7-BF7A2FD38B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D751454-391D-41AC-BE8A-54FA620F0EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -653,12 +653,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -953,7 +947,7 @@
   <dimension ref="A1:P258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1007,7 @@
       <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="21"/>
@@ -1025,7 +1019,7 @@
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="29" t="s">
         <v>113</v>
       </c>
       <c r="J2" s="7"/>
@@ -1041,7 +1035,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="21"/>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="21"/>
@@ -1053,7 +1047,7 @@
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="29" t="s">
         <v>113</v>
       </c>
       <c r="J3" s="7"/>
@@ -1071,7 +1065,7 @@
       <c r="B4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="21"/>
@@ -1083,7 +1077,7 @@
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="28" t="s">
         <v>114</v>
       </c>
       <c r="J4" s="7"/>
@@ -1099,7 +1093,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="21"/>
@@ -1111,7 +1105,7 @@
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="29" t="s">
         <v>113</v>
       </c>
       <c r="J5" s="7"/>
@@ -1129,7 +1123,7 @@
       <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="21"/>
@@ -1141,7 +1135,7 @@
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="29" t="s">
         <v>113</v>
       </c>
       <c r="J6" s="7"/>
@@ -1157,7 +1151,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="21"/>
@@ -1169,7 +1163,7 @@
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="28" t="s">
         <v>114</v>
       </c>
       <c r="J7" s="7"/>
@@ -1185,7 +1179,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="21"/>
@@ -1197,7 +1191,7 @@
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="29" t="s">
         <v>113</v>
       </c>
       <c r="J8" s="7"/>
@@ -1213,7 +1207,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="21"/>
@@ -1225,7 +1219,7 @@
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="29" t="s">
         <v>113</v>
       </c>
       <c r="J9" s="7"/>
@@ -1241,7 +1235,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="20" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="21"/>
@@ -1253,7 +1247,7 @@
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="29" t="s">
         <v>113</v>
       </c>
       <c r="J10" s="7"/>
@@ -1269,7 +1263,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="20" t="s">
         <v>100</v>
       </c>
       <c r="D11" s="21"/>
@@ -1281,7 +1275,7 @@
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="29" t="s">
         <v>113</v>
       </c>
       <c r="J11" s="7"/>
@@ -1299,7 +1293,7 @@
       <c r="B12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="21"/>
@@ -1311,7 +1305,7 @@
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="29" t="s">
         <v>113</v>
       </c>
       <c r="J12" s="7"/>
@@ -1327,7 +1321,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="21"/>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="21"/>
@@ -1339,7 +1333,7 @@
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="29" t="s">
         <v>113</v>
       </c>
       <c r="J13" s="7"/>
@@ -1357,7 +1351,7 @@
       <c r="B14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="21"/>
@@ -1369,7 +1363,7 @@
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="29" t="s">
         <v>113</v>
       </c>
       <c r="J14" s="7"/>
@@ -1385,7 +1379,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="20" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="21"/>
@@ -1397,7 +1391,7 @@
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="29" t="s">
         <v>113</v>
       </c>
       <c r="J15" s="7"/>
@@ -1413,7 +1407,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="20" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="21"/>
@@ -1425,7 +1419,7 @@
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="29" t="s">
         <v>113</v>
       </c>
       <c r="J16" s="7"/>
@@ -1443,7 +1437,7 @@
       <c r="B17" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="21"/>
@@ -1455,7 +1449,7 @@
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="29" t="s">
         <v>113</v>
       </c>
       <c r="J17" s="7"/>
@@ -1473,7 +1467,7 @@
       <c r="B18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="21"/>
@@ -1485,7 +1479,7 @@
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="29" t="s">
         <v>113</v>
       </c>
       <c r="J18" s="7"/>
@@ -1501,7 +1495,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="21"/>
@@ -1513,7 +1507,7 @@
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="29" t="s">
         <v>113</v>
       </c>
       <c r="J19" s="7"/>
@@ -1529,7 +1523,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="21"/>
@@ -1541,7 +1535,7 @@
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="31" t="s">
+      <c r="I20" s="29" t="s">
         <v>113</v>
       </c>
       <c r="J20" s="7"/>
@@ -1559,7 +1553,7 @@
       <c r="B21" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D21" s="20" t="s">
@@ -1573,7 +1567,7 @@
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="29" t="s">
         <v>113</v>
       </c>
       <c r="J21" s="7"/>
@@ -1589,7 +1583,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="21" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="20" t="s">
@@ -1617,7 +1611,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D23" s="20"/>
@@ -1865,7 +1859,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="18"/>
       <c r="H32" s="17"/>
-      <c r="I32" s="29"/>
+      <c r="I32" s="27"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -1883,7 +1877,7 @@
       <c r="F33" s="23"/>
       <c r="G33" s="18"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="29"/>
+      <c r="I33" s="27"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -1900,7 +1894,7 @@
       <c r="F34" s="23"/>
       <c r="G34" s="18"/>
       <c r="H34" s="17"/>
-      <c r="I34" s="29"/>
+      <c r="I34" s="27"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -1918,7 +1912,7 @@
       <c r="F35" s="24"/>
       <c r="G35" s="18"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="29"/>
+      <c r="I35" s="27"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -1936,7 +1930,7 @@
       <c r="F36" s="22"/>
       <c r="G36" s="18"/>
       <c r="H36" s="17"/>
-      <c r="I36" s="29"/>
+      <c r="I36" s="27"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -1954,7 +1948,7 @@
       <c r="F37" s="22"/>
       <c r="G37" s="18"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="29"/>
+      <c r="I37" s="27"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -1972,7 +1966,7 @@
       <c r="F38" s="22"/>
       <c r="G38" s="18"/>
       <c r="H38" s="17"/>
-      <c r="I38" s="29"/>
+      <c r="I38" s="27"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -1990,7 +1984,7 @@
       <c r="F39" s="24"/>
       <c r="G39" s="18"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="29"/>
+      <c r="I39" s="27"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -2008,7 +2002,7 @@
       <c r="F40" s="24"/>
       <c r="G40" s="18"/>
       <c r="H40" s="17"/>
-      <c r="I40" s="29"/>
+      <c r="I40" s="27"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -2026,7 +2020,7 @@
       <c r="F41" s="24"/>
       <c r="G41" s="18"/>
       <c r="H41" s="17"/>
-      <c r="I41" s="29"/>
+      <c r="I41" s="27"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -2044,7 +2038,7 @@
       <c r="F42" s="24"/>
       <c r="G42" s="18"/>
       <c r="H42" s="17"/>
-      <c r="I42" s="29"/>
+      <c r="I42" s="27"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -2062,7 +2056,7 @@
       <c r="F43" s="24"/>
       <c r="G43" s="18"/>
       <c r="H43" s="17"/>
-      <c r="I43" s="29"/>
+      <c r="I43" s="27"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -2080,7 +2074,7 @@
       <c r="F44" s="24"/>
       <c r="G44" s="18"/>
       <c r="H44" s="17"/>
-      <c r="I44" s="29"/>
+      <c r="I44" s="27"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -2098,7 +2092,7 @@
       <c r="F45" s="24"/>
       <c r="G45" s="19"/>
       <c r="H45" s="17"/>
-      <c r="I45" s="29"/>
+      <c r="I45" s="27"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -2116,7 +2110,7 @@
       <c r="F46" s="23"/>
       <c r="G46" s="15"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="29"/>
+      <c r="I46" s="27"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
@@ -2134,7 +2128,7 @@
       <c r="F47" s="23"/>
       <c r="G47" s="15"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="29"/>
+      <c r="I47" s="27"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -2152,7 +2146,7 @@
       <c r="F48" s="23"/>
       <c r="G48" s="15"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="29"/>
+      <c r="I48" s="27"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
